--- a/TestData/Production/Web_POS/Billing/customer_tagging_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/customer_tagging_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>new_city</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -888,8 +891,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="A16">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -910,7 +913,9 @@
     <col min="20" max="20" width="23.20703" customWidth="1"/>
     <col min="21" max="22" width="15" customWidth="1"/>
     <col min="23" max="23" width="28.75" customWidth="1"/>
-    <col min="24" max="1025" width="12.67969" customWidth="1"/>
+    <col min="24" max="27" width="12.67969" customWidth="1"/>
+    <col min="28" max="28" width="18.57031" customWidth="1"/>
+    <col min="29" max="1025" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -995,37 +1000,40 @@
       <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>1234</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8">
         <v>123456</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -1034,55 +1042,58 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="11">
         <v>45386</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3"/>
+      <c r="AB2" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>1234</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8">
         <v>123456</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1091,55 +1102,58 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="11">
         <v>45386</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" s="3"/>
+      <c r="AB3" s="1">
+        <v>9874563216</v>
+      </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>1234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8">
         <v>123456</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1148,55 +1162,58 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="11">
         <v>45386</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="3"/>
+      <c r="AB4" s="1">
+        <v>9874563216</v>
+      </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>1234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8">
         <v>123456</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1205,61 +1222,64 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="11">
         <v>45386</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" s="3"/>
       <c r="Y5">
         <v>411001</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>4525235325</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>1234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8">
         <v>123456</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1268,55 +1288,58 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" s="11">
         <v>45386</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" s="3"/>
+      <c r="AB6" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>1234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8">
         <v>123456</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1325,55 +1348,58 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" s="11">
         <v>45386</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" s="3"/>
+      <c r="AB7" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>1234</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
         <v>123456</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1382,55 +1408,58 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" s="11">
         <v>45386</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S8" s="3"/>
+      <c r="AB8" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>1234</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8">
         <v>123456</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1439,55 +1468,58 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" s="11">
         <v>45386</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S9" s="3"/>
+      <c r="AB9" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>1234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8">
         <v>123456</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1496,58 +1528,61 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" s="11">
         <v>45386</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S10" s="3"/>
       <c r="W10">
         <v>9876543212</v>
       </c>
+      <c r="AB10" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>1234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
         <v>123456</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1556,55 +1591,58 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11" s="11">
         <v>45386</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S11" s="3"/>
+      <c r="AB11" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>1234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8">
         <v>123456</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1613,55 +1651,58 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="11">
         <v>45386</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S12" s="3"/>
+      <c r="AB12" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>1234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8">
         <v>123456</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -1670,64 +1711,67 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="11">
         <v>45386</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13">
         <v>411001</v>
       </c>
+      <c r="AB13" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>1234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8">
         <v>123456</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -1736,64 +1780,67 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" s="11">
         <v>45386</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S14" s="12"/>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14">
         <v>411001</v>
       </c>
+      <c r="AB14" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>1234</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8">
         <v>123456</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -1802,28 +1849,28 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" s="11">
         <v>45386</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15">
         <v>9876543212</v>
@@ -1831,37 +1878,40 @@
       <c r="Y15">
         <v>411001</v>
       </c>
+      <c r="AB15" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>1234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8">
         <v>123456</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1870,26 +1920,26 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O16" s="11">
         <v>45386</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16">
         <v>9876543212</v>
@@ -1897,37 +1947,40 @@
       <c r="Y16">
         <v>411001</v>
       </c>
+      <c r="AB16" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>1234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8">
         <v>123456</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -1936,64 +1989,67 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O17" s="11">
         <v>45386</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17">
         <v>9876543212</v>
       </c>
       <c r="X17" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>1234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8">
         <v>123456</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2002,64 +2058,67 @@
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O18" s="11">
         <v>45386</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18">
         <v>9876543212</v>
       </c>
       <c r="X18" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>1234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8">
         <v>123456</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2068,34 +2127,34 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O19" s="11">
         <v>45386</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19">
         <v>8149214985</v>
@@ -2103,37 +2162,40 @@
       <c r="Y19">
         <v>411001</v>
       </c>
+      <c r="AB19" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>1234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8">
         <v>123456</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2142,28 +2204,28 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O20" s="11">
         <v>45386</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U20" s="13">
         <v>123456789876543</v>
@@ -2177,37 +2239,40 @@
       <c r="Y20">
         <v>411001</v>
       </c>
+      <c r="AB20" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>1234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8">
         <v>123456</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2216,70 +2281,73 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O21" s="11">
         <v>45386</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y21" s="13">
         <v>791102</v>
       </c>
       <c r="AA21" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>1234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8">
         <v>123456</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2288,28 +2356,28 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O22" s="11">
         <v>45386</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U22">
         <v>123456765445434</v>
@@ -2317,37 +2385,40 @@
       <c r="Y22">
         <v>411001</v>
       </c>
+      <c r="AB22" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>1234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="8">
         <v>123456</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2356,119 +2427,125 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O23" s="11">
         <v>45386</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y23">
         <v>411001</v>
       </c>
+      <c r="AB23" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>1234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8">
         <v>123456</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O24" s="11">
         <v>45386</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y24">
         <v>411001</v>
       </c>
+      <c r="AB24" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>1234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" s="8">
         <v>123456</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2477,31 +2554,31 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O25" s="11">
         <v>45386</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W25">
         <v>8149214985</v>
@@ -2509,37 +2586,40 @@
       <c r="Y25">
         <v>411001</v>
       </c>
+      <c r="AB25" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>1234</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" s="8">
         <v>123456</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2548,28 +2628,28 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O26" s="11">
         <v>45386</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U26">
         <v>123456765445434</v>
@@ -2578,42 +2658,45 @@
         <v>8149214985</v>
       </c>
       <c r="X26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y26" s="1">
         <v>791113</v>
       </c>
+      <c r="AB26" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>1234</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="8">
         <v>123456</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -2622,66 +2705,69 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O27" s="11">
         <v>45386</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y27">
         <v>411001</v>
       </c>
+      <c r="AB27" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>1234</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="8">
         <v>123456</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2690,60 +2776,63 @@
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O28" s="11">
         <v>45386</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W28">
         <v>656765</v>
       </c>
+      <c r="AB28" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>1234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" s="8">
         <v>123456</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2752,57 +2841,60 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O29" s="11">
         <v>45386</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>1234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="8">
         <v>123456</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -2811,24 +2903,27 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O30" s="11">
         <v>45386</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S30" s="3"/>
+      <c r="AB30" s="7">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="1"/>
@@ -2843,6 +2938,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="S31" s="3"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="1"/>
@@ -2857,6 +2953,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="S32" s="3"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="1"/>
@@ -2871,6 +2968,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="S33" s="3"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="1"/>
@@ -2883,6 +2981,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="S34" s="3"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="1"/>
@@ -2895,6 +2994,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="S35" s="3"/>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="1"/>
@@ -2908,6 +3008,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="S36" s="3"/>
+      <c r="AB36" s="7"/>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="2"/>
@@ -2920,6 +3021,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="S37" s="3"/>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="2"/>
@@ -2932,6 +3034,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="S38" s="3"/>
+      <c r="AB38" s="7"/>
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="2"/>
@@ -2944,6 +3047,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="S39" s="3"/>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="2"/>
@@ -2956,6 +3060,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="S40" s="3"/>
+      <c r="AB40" s="7"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="2"/>
@@ -2968,6 +3073,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="S41" s="3"/>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="2"/>
@@ -2980,6 +3086,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="S42" s="3"/>
+      <c r="AB42" s="7"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="2"/>
@@ -2992,6 +3099,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="S43" s="3"/>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="2"/>
@@ -3004,6 +3112,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="S44" s="3"/>
+      <c r="AB44" s="7"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="2"/>
@@ -3016,6 +3125,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="S45" s="3"/>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" s="2"/>
@@ -3028,6 +3138,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="S46" s="3"/>
+      <c r="AB46" s="7"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="2"/>
@@ -3040,6 +3151,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="S47" s="3"/>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="2"/>
@@ -3052,6 +3164,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="S48" s="3"/>
+      <c r="AB48" s="7"/>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="2"/>
@@ -3064,6 +3177,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="S49" s="3"/>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="2"/>
@@ -3076,6 +3190,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="S50" s="3"/>
+      <c r="AB50" s="7"/>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="2"/>
@@ -3088,6 +3203,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="S51" s="3"/>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="2"/>
@@ -3100,6 +3216,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="S52" s="3"/>
+      <c r="AB52" s="7"/>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="2"/>
@@ -3112,6 +3229,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="S53" s="3"/>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="2"/>
@@ -3124,6 +3242,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="S54" s="3"/>
+      <c r="AB54" s="7"/>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" s="2"/>
@@ -3136,6 +3255,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="S55" s="3"/>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="2"/>
@@ -3148,6 +3268,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="S56" s="3"/>
+      <c r="AB56" s="7"/>
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="2"/>
@@ -3160,6 +3281,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="S57" s="3"/>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" s="2"/>
@@ -3172,6 +3294,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="S58" s="3"/>
+      <c r="AB58" s="2"/>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" s="2"/>
@@ -3184,6 +3307,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="S59" s="3"/>
+      <c r="AB59" s="2"/>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" s="2"/>
@@ -3196,6 +3320,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="S60" s="3"/>
+      <c r="AB60" s="2"/>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" s="2"/>
@@ -3208,6 +3333,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="S61" s="3"/>
+      <c r="AB61" s="2"/>
     </row>
     <row r="62" ht="14.25">
       <c r="B62" s="2"/>
@@ -3220,6 +3346,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="S62" s="3"/>
+      <c r="AB62" s="2"/>
     </row>
     <row r="63" ht="14.25">
       <c r="B63" s="2"/>
@@ -3232,6 +3359,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="S63" s="3"/>
+      <c r="AB63" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/TestData/Production/Web_POS/Billing/customer_tagging_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/customer_tagging_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\PROD\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,6 +75,9 @@
     <t>group</t>
   </si>
   <si>
+    <t>edited_group</t>
+  </si>
+  <si>
     <t>tax_invoice</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
   </si>
   <si>
     <t>QBSB-any____qty-Getpool-Anyqty-Free</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
   <si>
     <t>TC_08</t>
@@ -891,8 +897,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="R18">
+      <selection activeCell="S32" activeCellId="1" sqref="S9:S29 S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -909,13 +915,15 @@
     <col min="11" max="12" width="31.95703" style="1" customWidth="1"/>
     <col min="13" max="14" width="28.75" customWidth="1"/>
     <col min="15" max="17" width="19.09766" customWidth="1"/>
-    <col min="18" max="19" width="29.45703" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.20703" customWidth="1"/>
-    <col min="21" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="28.75" customWidth="1"/>
-    <col min="24" max="27" width="12.67969" customWidth="1"/>
-    <col min="28" max="28" width="18.57031" customWidth="1"/>
-    <col min="29" max="1025" width="12.67969" customWidth="1"/>
+    <col min="18" max="18" width="29.45703" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.45703" style="1" customWidth="1"/>
+    <col min="20" max="20" width="29.45703" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.20703" customWidth="1"/>
+    <col min="22" max="23" width="15" customWidth="1"/>
+    <col min="24" max="24" width="28.75" customWidth="1"/>
+    <col min="25" max="28" width="12.67969" customWidth="1"/>
+    <col min="29" max="29" width="18.57031" customWidth="1"/>
+    <col min="30" max="1026" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -973,10 +981,10 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="4" t="s">
@@ -991,49 +999,52 @@
       <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>1234</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="8">
         <v>123456</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -1042,58 +1053,59 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="11">
         <v>45386</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="AB2" s="7">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="3"/>
+      <c r="AC2" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>1234</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8">
         <v>123456</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1102,58 +1114,59 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" s="11">
         <v>45386</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="AB3" s="1">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="3"/>
+      <c r="AC3" s="1">
         <v>9874563216</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>1234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="8">
         <v>123456</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1162,58 +1175,59 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="11">
         <v>45386</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="AB4" s="1">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="3"/>
+      <c r="AC4" s="1">
         <v>9874563216</v>
       </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>1234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8">
         <v>123456</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1222,64 +1236,65 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O5" s="11">
         <v>45386</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="Y5">
+        <v>41</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="3"/>
+      <c r="Z5">
         <v>411001</v>
       </c>
-      <c r="Z5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB5" s="7">
+      <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="7">
         <v>4525235325</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>1234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8">
         <v>123456</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1288,58 +1303,59 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" s="11">
         <v>45386</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="AB6" s="7">
+        <v>41</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="3"/>
+      <c r="AC6" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>1234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="8">
         <v>123456</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1348,58 +1364,59 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O7" s="11">
         <v>45386</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="AB7" s="7">
+        <v>41</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="3"/>
+      <c r="AC7" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>1234</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="8">
         <v>123456</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1408,58 +1425,61 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O8" s="11">
         <v>45386</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="AB8" s="7">
+        <v>41</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="AC8" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>1234</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="8">
         <v>123456</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1468,58 +1488,61 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O9" s="11">
         <v>45386</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="AB9" s="7">
+        <v>41</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="AC9" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>1234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8">
         <v>123456</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1528,61 +1551,64 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O10" s="11">
         <v>45386</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="W10">
+        <v>41</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="X10">
         <v>9876543212</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AC10" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>1234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8">
         <v>123456</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1591,58 +1617,61 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O11" s="11">
         <v>45386</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="AB11" s="7">
+        <v>41</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="AC11" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>1234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8">
         <v>123456</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1651,127 +1680,133 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="11">
         <v>45386</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="AB12" s="7">
+        <v>41</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="AC12" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>1234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="8">
         <v>123456</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="11">
         <v>45386</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" t="s">
-        <v>71</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y13">
+        <v>41</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z13">
         <v>411001</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AC13" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>1234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="8">
         <v>123456</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -1780,67 +1815,70 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" s="11">
         <v>45386</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" t="s">
-        <v>76</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y14">
+        <v>41</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14">
         <v>411001</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AC14" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>1234</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="8">
         <v>123456</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -1849,69 +1887,72 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O15" s="11">
         <v>45386</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="T15" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15">
+        <v>41</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15">
         <v>9876543212</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>411001</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AC15" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>1234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="8">
         <v>123456</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1920,67 +1961,70 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O16" s="11">
         <v>45386</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="3"/>
-      <c r="T16" t="s">
-        <v>82</v>
-      </c>
-      <c r="W16">
+        <v>41</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16">
         <v>9876543212</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>411001</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AC16" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>1234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="8">
         <v>123456</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -1989,67 +2033,70 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O17" s="11">
         <v>45386</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" t="s">
-        <v>82</v>
-      </c>
-      <c r="W17">
+        <v>41</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17">
         <v>9876543212</v>
       </c>
-      <c r="X17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB17" s="7">
+      <c r="Y17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC17" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>1234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="8">
         <v>123456</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2058,67 +2105,70 @@
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O18" s="11">
         <v>45386</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W18">
+        <v>41</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18">
         <v>9876543212</v>
       </c>
-      <c r="X18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB18" s="7">
+      <c r="Y18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>1234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="8">
         <v>123456</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2127,75 +2177,78 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O19" s="11">
         <v>45386</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="T19" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" t="s">
+        <v>92</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="W19">
+        <v>74</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19">
         <v>8149214985</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>411001</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AC19" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>1234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="8">
         <v>123456</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2204,75 +2257,78 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O20" s="11">
         <v>45386</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T20" t="s">
-        <v>94</v>
-      </c>
-      <c r="U20" s="13">
-        <v>123456789876543</v>
+        <v>41</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20" t="s">
+        <v>96</v>
       </c>
       <c r="V20" s="13">
         <v>123456789876543</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="13">
+        <v>123456789876543</v>
+      </c>
+      <c r="X20">
         <v>8149214985</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>411001</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AC20" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>1234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="8">
         <v>123456</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2281,73 +2337,76 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O21" s="11">
         <v>45386</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T21" t="s">
-        <v>98</v>
-      </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="U21" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z21" s="13">
         <v>791102</v>
       </c>
-      <c r="AA21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB21" s="7">
+      <c r="AB21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC21" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>1234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="8">
         <v>123456</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2356,69 +2415,72 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O22" s="11">
         <v>45386</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22" t="s">
-        <v>103</v>
-      </c>
-      <c r="U22">
+        <v>41</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U22" t="s">
+        <v>105</v>
+      </c>
+      <c r="V22">
         <v>123456765445434</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>411001</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AC22" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>1234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="8">
         <v>123456</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2427,125 +2489,131 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O23" s="11">
         <v>45386</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y23">
+        <v>41</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z23">
         <v>411001</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AC23" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>1234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="8">
         <v>123456</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O24" s="11">
         <v>45386</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y24">
+        <v>41</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z24">
         <v>411001</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AC24" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>1234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" s="8">
         <v>123456</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2554,72 +2622,75 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O25" s="11">
         <v>45386</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T25" t="s">
-        <v>90</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W25">
+        <v>41</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U25" t="s">
+        <v>92</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X25">
         <v>8149214985</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>411001</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AC25" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>1234</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="8">
         <v>123456</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2628,75 +2699,78 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O26" s="11">
         <v>45386</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T26" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26">
+        <v>41</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U26" t="s">
+        <v>96</v>
+      </c>
+      <c r="V26">
         <v>123456765445434</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>8149214985</v>
       </c>
-      <c r="X26" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y26" s="1">
+      <c r="Y26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z26" s="1">
         <v>791113</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AC26" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>1234</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="8">
         <v>123456</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -2705,69 +2779,72 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O27" s="11">
         <v>45386</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T27" t="s">
-        <v>117</v>
-      </c>
-      <c r="V27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y27">
+        <v>41</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U27" t="s">
+        <v>119</v>
+      </c>
+      <c r="W27" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z27">
         <v>411001</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AC27" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>1234</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="8">
         <v>123456</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2776,63 +2853,66 @@
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O28" s="11">
         <v>45386</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W28">
+        <v>41</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X28">
         <v>656765</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AC28" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>1234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" s="8">
         <v>123456</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2841,60 +2921,63 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O29" s="11">
         <v>45386</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB29" s="7">
+        <v>41</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC29" s="7">
         <v>9874563215</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>1234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" s="8">
         <v>123456</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -2903,25 +2986,26 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O30" s="11">
         <v>45386</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" s="3"/>
-      <c r="AB30" s="7">
+        <v>41</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="3"/>
+      <c r="AC30" s="7">
         <v>9874563215</v>
       </c>
     </row>
@@ -2937,8 +3021,9 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-      <c r="S31" s="3"/>
-      <c r="AB31" s="7"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="3"/>
+      <c r="AC31" s="7"/>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="1"/>
@@ -2952,8 +3037,9 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
-      <c r="S32" s="3"/>
-      <c r="AB32" s="7"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="3"/>
+      <c r="AC32" s="7"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="1"/>
@@ -2967,8 +3053,9 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-      <c r="S33" s="3"/>
-      <c r="AB33" s="7"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="3"/>
+      <c r="AC33" s="7"/>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="1"/>
@@ -2980,8 +3067,9 @@
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
-      <c r="S34" s="3"/>
-      <c r="AB34" s="7"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="3"/>
+      <c r="AC34" s="7"/>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="1"/>
@@ -2993,8 +3081,9 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-      <c r="S35" s="3"/>
-      <c r="AB35" s="7"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="3"/>
+      <c r="AC35" s="7"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="1"/>
@@ -3007,8 +3096,9 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-      <c r="S36" s="3"/>
-      <c r="AB36" s="7"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="3"/>
+      <c r="AC36" s="7"/>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="2"/>
@@ -3020,8 +3110,9 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="S37" s="3"/>
-      <c r="AB37" s="7"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="3"/>
+      <c r="AC37" s="7"/>
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="2"/>
@@ -3033,8 +3124,9 @@
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="S38" s="3"/>
-      <c r="AB38" s="7"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="3"/>
+      <c r="AC38" s="7"/>
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="2"/>
@@ -3046,8 +3138,9 @@
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="S39" s="3"/>
-      <c r="AB39" s="7"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="3"/>
+      <c r="AC39" s="7"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="2"/>
@@ -3059,8 +3152,9 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="S40" s="3"/>
-      <c r="AB40" s="7"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="3"/>
+      <c r="AC40" s="7"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="2"/>
@@ -3072,8 +3166,9 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="S41" s="3"/>
-      <c r="AB41" s="7"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="3"/>
+      <c r="AC41" s="7"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="2"/>
@@ -3085,8 +3180,9 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="S42" s="3"/>
-      <c r="AB42" s="7"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="3"/>
+      <c r="AC42" s="7"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="2"/>
@@ -3098,8 +3194,9 @@
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="S43" s="3"/>
-      <c r="AB43" s="7"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="3"/>
+      <c r="AC43" s="7"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="2"/>
@@ -3111,8 +3208,9 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="S44" s="3"/>
-      <c r="AB44" s="7"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="3"/>
+      <c r="AC44" s="7"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="2"/>
@@ -3124,8 +3222,9 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="S45" s="3"/>
-      <c r="AB45" s="7"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="3"/>
+      <c r="AC45" s="7"/>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" s="2"/>
@@ -3137,8 +3236,9 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-      <c r="S46" s="3"/>
-      <c r="AB46" s="7"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="3"/>
+      <c r="AC46" s="7"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="2"/>
@@ -3150,8 +3250,9 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
-      <c r="S47" s="3"/>
-      <c r="AB47" s="7"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="3"/>
+      <c r="AC47" s="7"/>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="2"/>
@@ -3163,8 +3264,9 @@
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
-      <c r="S48" s="3"/>
-      <c r="AB48" s="7"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="3"/>
+      <c r="AC48" s="7"/>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="2"/>
@@ -3176,8 +3278,9 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="S49" s="3"/>
-      <c r="AB49" s="7"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="3"/>
+      <c r="AC49" s="7"/>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="2"/>
@@ -3189,8 +3292,9 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
-      <c r="S50" s="3"/>
-      <c r="AB50" s="7"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="3"/>
+      <c r="AC50" s="7"/>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="2"/>
@@ -3202,8 +3306,9 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="S51" s="3"/>
-      <c r="AB51" s="7"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="3"/>
+      <c r="AC51" s="7"/>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="2"/>
@@ -3215,8 +3320,9 @@
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="S52" s="3"/>
-      <c r="AB52" s="7"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="3"/>
+      <c r="AC52" s="7"/>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="2"/>
@@ -3228,8 +3334,9 @@
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
-      <c r="S53" s="3"/>
-      <c r="AB53" s="7"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="3"/>
+      <c r="AC53" s="7"/>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="2"/>
@@ -3241,8 +3348,9 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="S54" s="3"/>
-      <c r="AB54" s="7"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="3"/>
+      <c r="AC54" s="7"/>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" s="2"/>
@@ -3254,8 +3362,9 @@
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
-      <c r="S55" s="3"/>
-      <c r="AB55" s="7"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="3"/>
+      <c r="AC55" s="7"/>
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="2"/>
@@ -3267,8 +3376,9 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
-      <c r="S56" s="3"/>
-      <c r="AB56" s="7"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="3"/>
+      <c r="AC56" s="7"/>
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="2"/>
@@ -3280,8 +3390,9 @@
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
-      <c r="S57" s="3"/>
-      <c r="AB57" s="7"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="3"/>
+      <c r="AC57" s="7"/>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" s="2"/>
@@ -3293,8 +3404,9 @@
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
-      <c r="S58" s="3"/>
-      <c r="AB58" s="2"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="3"/>
+      <c r="AC58" s="2"/>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" s="2"/>
@@ -3306,8 +3418,9 @@
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
-      <c r="S59" s="3"/>
-      <c r="AB59" s="2"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="3"/>
+      <c r="AC59" s="2"/>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" s="2"/>
@@ -3319,8 +3432,9 @@
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
-      <c r="S60" s="3"/>
-      <c r="AB60" s="2"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="3"/>
+      <c r="AC60" s="2"/>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" s="2"/>
@@ -3332,8 +3446,9 @@
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
-      <c r="S61" s="3"/>
-      <c r="AB61" s="2"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="3"/>
+      <c r="AC61" s="2"/>
     </row>
     <row r="62" ht="14.25">
       <c r="B62" s="2"/>
@@ -3345,8 +3460,9 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
-      <c r="S62" s="3"/>
-      <c r="AB62" s="2"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="3"/>
+      <c r="AC62" s="2"/>
     </row>
     <row r="63" ht="14.25">
       <c r="B63" s="2"/>
@@ -3358,8 +3474,9 @@
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
-      <c r="S63" s="3"/>
-      <c r="AB63" s="2"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="3"/>
+      <c r="AC63" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
